--- a/SPPSApi/Doc/Template/FS1101_Print.xlsx
+++ b/SPPSApi/Doc/Template/FS1101_Print.xlsx
@@ -25,18 +25,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>包材断取指示书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日期：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>断取指示书号:210106-2-00409</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -58,6 +50,14 @@
   </si>
   <si>
     <t>台车号：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包材段取指示书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段取指示书号:210106-2-00409</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,6 +158,12 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -166,12 +172,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,61 +477,61 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="7.625" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
     <col min="6" max="6" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -542,7 +542,8 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="11" scale="69" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
